--- a/biology/Zoologie/Cyrtodactylus_khasiensis/Cyrtodactylus_khasiensis.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_khasiensis/Cyrtodactylus_khasiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus khasiensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus khasiensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Assam, au Bengale-Occidental et au Meghalaya en Inde ;
 au Bhoutan ;
 au Tibet en République populaire de Chine.</t>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (24 janvier 2014) :
 Cyrtodactylus khasiensis cayuensis Pi-peng, 2007
 Cyrtodactylus khasiensis khasiensis (Jerdon, 1870)
 La sous-espèce Cyrtodactylus khasiensis tamaiensis a été élevée au rang d'espèce.
@@ -578,7 +594,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, composée de khasi et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte : le Khasi Hills.
 </t>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jerdon, 1870 : Notes on Indian Herpetology. Proceedings of the Asiatic Society of Bengal, vol. 1870, p. 66-85 (texte intégral).
 Li, 2007 : Description of a new subspecies of Crytodactylus khasiensis from China. Acta Zootaxonomica Sinica, vol. 32, no 3, p. 733-737.</t>
